--- a/output/input_data.xlsx
+++ b/output/input_data.xlsx
@@ -7,6 +7,7 @@
     <sheet name="od_pairs" sheetId="2" r:id="rId2"/>
     <sheet name="calendar" sheetId="3" r:id="rId3"/>
     <sheet name="trip_times" sheetId="4" r:id="rId4"/>
+    <sheet name="trip_time_series" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -1582,4 +1583,6390 @@
     <ignoredError numberStoredAsText="1" sqref="A1:P14"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BZ27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>240</v>
+      </c>
+      <c r="B1" t="str">
+        <v>255</v>
+      </c>
+      <c r="C1" t="str">
+        <v>265</v>
+      </c>
+      <c r="D1" t="str">
+        <v>270</v>
+      </c>
+      <c r="E1" t="str">
+        <v>275</v>
+      </c>
+      <c r="F1" t="str">
+        <v>285</v>
+      </c>
+      <c r="G1" t="str">
+        <v>295</v>
+      </c>
+      <c r="H1" t="str">
+        <v>300</v>
+      </c>
+      <c r="I1" t="str">
+        <v>305</v>
+      </c>
+      <c r="J1" t="str">
+        <v>315</v>
+      </c>
+      <c r="K1" t="str">
+        <v>325</v>
+      </c>
+      <c r="L1" t="str">
+        <v>330</v>
+      </c>
+      <c r="M1" t="str">
+        <v>335</v>
+      </c>
+      <c r="N1" t="str">
+        <v>345</v>
+      </c>
+      <c r="O1" t="str">
+        <v>355</v>
+      </c>
+      <c r="P1" t="str">
+        <v>360</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>375</v>
+      </c>
+      <c r="R1" t="str">
+        <v>385</v>
+      </c>
+      <c r="S1" t="str">
+        <v>390</v>
+      </c>
+      <c r="T1" t="str">
+        <v>395</v>
+      </c>
+      <c r="U1" t="str">
+        <v>405</v>
+      </c>
+      <c r="V1" t="str">
+        <v>415</v>
+      </c>
+      <c r="W1" t="str">
+        <v>420</v>
+      </c>
+      <c r="X1" t="str">
+        <v>425</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>435</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>445</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>450</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>455</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>465</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>475</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>480</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>485</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>495</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>505</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>510</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>515</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>525</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>535</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>540</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>545</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>555</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>565</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>570</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>575</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>585</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>600</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>630</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>660</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>690</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>720</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>750</v>
+      </c>
+      <c r="AZ1" t="str">
+        <v>780</v>
+      </c>
+      <c r="BA1" t="str">
+        <v>810</v>
+      </c>
+      <c r="BB1" t="str">
+        <v>840</v>
+      </c>
+      <c r="BC1" t="str">
+        <v>870</v>
+      </c>
+      <c r="BD1" t="str">
+        <v>900</v>
+      </c>
+      <c r="BE1" t="str">
+        <v>930</v>
+      </c>
+      <c r="BF1" t="str">
+        <v>945</v>
+      </c>
+      <c r="BG1" t="str">
+        <v>960</v>
+      </c>
+      <c r="BH1" t="str">
+        <v>975</v>
+      </c>
+      <c r="BI1" t="str">
+        <v>990</v>
+      </c>
+      <c r="BJ1" t="str">
+        <v>1005</v>
+      </c>
+      <c r="BK1" t="str">
+        <v>1020</v>
+      </c>
+      <c r="BL1" t="str">
+        <v>1035</v>
+      </c>
+      <c r="BM1" t="str">
+        <v>1050</v>
+      </c>
+      <c r="BN1" t="str">
+        <v>1065</v>
+      </c>
+      <c r="BO1" t="str">
+        <v>1080</v>
+      </c>
+      <c r="BP1" t="str">
+        <v>1095</v>
+      </c>
+      <c r="BQ1" t="str">
+        <v>1110</v>
+      </c>
+      <c r="BR1" t="str">
+        <v>1125</v>
+      </c>
+      <c r="BS1" t="str">
+        <v>1140</v>
+      </c>
+      <c r="BT1" t="str">
+        <v>1170</v>
+      </c>
+      <c r="BU1" t="str">
+        <v>1200</v>
+      </c>
+      <c r="BV1" t="str">
+        <v>1230</v>
+      </c>
+      <c r="BW1" t="str">
+        <v>1260</v>
+      </c>
+      <c r="BX1" t="str">
+        <v>1290</v>
+      </c>
+      <c r="BY1" t="str">
+        <v>1320</v>
+      </c>
+      <c r="BZ1" t="str">
+        <v>id</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <v>1</v>
+      </c>
+      <c r="BE2">
+        <v>1</v>
+      </c>
+      <c r="BF2">
+        <v>1</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2">
+        <v>1</v>
+      </c>
+      <c r="BI2">
+        <v>1</v>
+      </c>
+      <c r="BJ2">
+        <v>1</v>
+      </c>
+      <c r="BK2">
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>1</v>
+      </c>
+      <c r="BM2">
+        <v>1</v>
+      </c>
+      <c r="BN2">
+        <v>1</v>
+      </c>
+      <c r="BO2">
+        <v>1</v>
+      </c>
+      <c r="BP2">
+        <v>1</v>
+      </c>
+      <c r="BQ2">
+        <v>1</v>
+      </c>
+      <c r="BR2">
+        <v>1</v>
+      </c>
+      <c r="BS2">
+        <v>1</v>
+      </c>
+      <c r="BT2">
+        <v>1</v>
+      </c>
+      <c r="BU2">
+        <v>1</v>
+      </c>
+      <c r="BV2">
+        <v>1</v>
+      </c>
+      <c r="BW2">
+        <v>1</v>
+      </c>
+      <c r="BX2">
+        <v>1</v>
+      </c>
+      <c r="BY2">
+        <v>1</v>
+      </c>
+      <c r="BZ2" t="str">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
+        <v>1</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="str">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4" t="str">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>1</v>
+      </c>
+      <c r="AZ5">
+        <v>1</v>
+      </c>
+      <c r="BA5">
+        <v>1</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
+        <v>1</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>1</v>
+      </c>
+      <c r="BF5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BM5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
+        <v>1</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="str">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
+        <v>1</v>
+      </c>
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
+        <v>1</v>
+      </c>
+      <c r="BW6">
+        <v>1</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="BY6">
+        <v>1</v>
+      </c>
+      <c r="BZ6" t="str">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
+        <v>1</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>1</v>
+      </c>
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+      <c r="BV7">
+        <v>1</v>
+      </c>
+      <c r="BW7">
+        <v>1</v>
+      </c>
+      <c r="BX7">
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>1</v>
+      </c>
+      <c r="BZ7" t="str">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
+      <c r="BO8">
+        <v>1</v>
+      </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
+        <v>1</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="str">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
+        <v>1</v>
+      </c>
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
+        <v>1</v>
+      </c>
+      <c r="BD9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>1</v>
+      </c>
+      <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <v>1</v>
+      </c>
+      <c r="BJ9">
+        <v>1</v>
+      </c>
+      <c r="BK9">
+        <v>1</v>
+      </c>
+      <c r="BL9">
+        <v>1</v>
+      </c>
+      <c r="BM9">
+        <v>1</v>
+      </c>
+      <c r="BN9">
+        <v>1</v>
+      </c>
+      <c r="BO9">
+        <v>1</v>
+      </c>
+      <c r="BP9">
+        <v>1</v>
+      </c>
+      <c r="BQ9">
+        <v>1</v>
+      </c>
+      <c r="BR9">
+        <v>1</v>
+      </c>
+      <c r="BS9">
+        <v>1</v>
+      </c>
+      <c r="BT9">
+        <v>1</v>
+      </c>
+      <c r="BU9">
+        <v>1</v>
+      </c>
+      <c r="BV9">
+        <v>1</v>
+      </c>
+      <c r="BW9">
+        <v>1</v>
+      </c>
+      <c r="BX9">
+        <v>1</v>
+      </c>
+      <c r="BY9">
+        <v>1</v>
+      </c>
+      <c r="BZ9" t="str">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>1</v>
+      </c>
+      <c r="BD10">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>1</v>
+      </c>
+      <c r="BG10">
+        <v>1</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>1</v>
+      </c>
+      <c r="BJ10">
+        <v>1</v>
+      </c>
+      <c r="BK10">
+        <v>1</v>
+      </c>
+      <c r="BL10">
+        <v>1</v>
+      </c>
+      <c r="BM10">
+        <v>1</v>
+      </c>
+      <c r="BN10">
+        <v>1</v>
+      </c>
+      <c r="BO10">
+        <v>1</v>
+      </c>
+      <c r="BP10">
+        <v>1</v>
+      </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
+      <c r="BR10">
+        <v>1</v>
+      </c>
+      <c r="BS10">
+        <v>1</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="str">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>1</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BJ11">
+        <v>1</v>
+      </c>
+      <c r="BK11">
+        <v>1</v>
+      </c>
+      <c r="BL11">
+        <v>1</v>
+      </c>
+      <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11">
+        <v>1</v>
+      </c>
+      <c r="BO11">
+        <v>1</v>
+      </c>
+      <c r="BP11">
+        <v>1</v>
+      </c>
+      <c r="BQ11">
+        <v>1</v>
+      </c>
+      <c r="BR11">
+        <v>1</v>
+      </c>
+      <c r="BS11">
+        <v>1</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
+      </c>
+      <c r="BV11">
+        <v>1</v>
+      </c>
+      <c r="BW11">
+        <v>1</v>
+      </c>
+      <c r="BX11">
+        <v>1</v>
+      </c>
+      <c r="BY11">
+        <v>1</v>
+      </c>
+      <c r="BZ11" t="str">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1</v>
+      </c>
+      <c r="AV12">
+        <v>1</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>1</v>
+      </c>
+      <c r="AZ12">
+        <v>1</v>
+      </c>
+      <c r="BA12">
+        <v>1</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
+        <v>1</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>1</v>
+      </c>
+      <c r="BF12">
+        <v>1</v>
+      </c>
+      <c r="BG12">
+        <v>1</v>
+      </c>
+      <c r="BH12">
+        <v>1</v>
+      </c>
+      <c r="BI12">
+        <v>1</v>
+      </c>
+      <c r="BJ12">
+        <v>1</v>
+      </c>
+      <c r="BK12">
+        <v>1</v>
+      </c>
+      <c r="BL12">
+        <v>1</v>
+      </c>
+      <c r="BM12">
+        <v>1</v>
+      </c>
+      <c r="BN12">
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>1</v>
+      </c>
+      <c r="BP12">
+        <v>1</v>
+      </c>
+      <c r="BQ12">
+        <v>1</v>
+      </c>
+      <c r="BR12">
+        <v>1</v>
+      </c>
+      <c r="BS12">
+        <v>1</v>
+      </c>
+      <c r="BT12">
+        <v>1</v>
+      </c>
+      <c r="BU12">
+        <v>1</v>
+      </c>
+      <c r="BV12">
+        <v>1</v>
+      </c>
+      <c r="BW12">
+        <v>1</v>
+      </c>
+      <c r="BX12">
+        <v>1</v>
+      </c>
+      <c r="BY12">
+        <v>1</v>
+      </c>
+      <c r="BZ12" t="str">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>1</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>1</v>
+      </c>
+      <c r="AT13">
+        <v>1</v>
+      </c>
+      <c r="AU13">
+        <v>1</v>
+      </c>
+      <c r="AV13">
+        <v>1</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>1</v>
+      </c>
+      <c r="AY13">
+        <v>1</v>
+      </c>
+      <c r="AZ13">
+        <v>1</v>
+      </c>
+      <c r="BA13">
+        <v>1</v>
+      </c>
+      <c r="BB13">
+        <v>1</v>
+      </c>
+      <c r="BC13">
+        <v>1</v>
+      </c>
+      <c r="BD13">
+        <v>1</v>
+      </c>
+      <c r="BE13">
+        <v>1</v>
+      </c>
+      <c r="BF13">
+        <v>1</v>
+      </c>
+      <c r="BG13">
+        <v>1</v>
+      </c>
+      <c r="BH13">
+        <v>1</v>
+      </c>
+      <c r="BI13">
+        <v>1</v>
+      </c>
+      <c r="BJ13">
+        <v>1</v>
+      </c>
+      <c r="BK13">
+        <v>1</v>
+      </c>
+      <c r="BL13">
+        <v>1</v>
+      </c>
+      <c r="BM13">
+        <v>1</v>
+      </c>
+      <c r="BN13">
+        <v>1</v>
+      </c>
+      <c r="BO13">
+        <v>1</v>
+      </c>
+      <c r="BP13">
+        <v>1</v>
+      </c>
+      <c r="BQ13">
+        <v>1</v>
+      </c>
+      <c r="BR13">
+        <v>1</v>
+      </c>
+      <c r="BS13">
+        <v>1</v>
+      </c>
+      <c r="BT13">
+        <v>1</v>
+      </c>
+      <c r="BU13">
+        <v>1</v>
+      </c>
+      <c r="BV13">
+        <v>1</v>
+      </c>
+      <c r="BW13">
+        <v>1</v>
+      </c>
+      <c r="BX13">
+        <v>1</v>
+      </c>
+      <c r="BY13">
+        <v>1</v>
+      </c>
+      <c r="BZ13" t="str">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>1</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>1</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>1</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14">
+        <v>1</v>
+      </c>
+      <c r="BA14">
+        <v>1</v>
+      </c>
+      <c r="BB14">
+        <v>1</v>
+      </c>
+      <c r="BC14">
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <v>1</v>
+      </c>
+      <c r="BE14">
+        <v>1</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
+      </c>
+      <c r="BG14">
+        <v>1</v>
+      </c>
+      <c r="BH14">
+        <v>1</v>
+      </c>
+      <c r="BI14">
+        <v>1</v>
+      </c>
+      <c r="BJ14">
+        <v>1</v>
+      </c>
+      <c r="BK14">
+        <v>1</v>
+      </c>
+      <c r="BL14">
+        <v>1</v>
+      </c>
+      <c r="BM14">
+        <v>1</v>
+      </c>
+      <c r="BN14">
+        <v>1</v>
+      </c>
+      <c r="BO14">
+        <v>1</v>
+      </c>
+      <c r="BP14">
+        <v>1</v>
+      </c>
+      <c r="BQ14">
+        <v>1</v>
+      </c>
+      <c r="BR14">
+        <v>1</v>
+      </c>
+      <c r="BS14">
+        <v>1</v>
+      </c>
+      <c r="BT14">
+        <v>1</v>
+      </c>
+      <c r="BU14">
+        <v>1</v>
+      </c>
+      <c r="BV14">
+        <v>1</v>
+      </c>
+      <c r="BW14">
+        <v>1</v>
+      </c>
+      <c r="BX14">
+        <v>1</v>
+      </c>
+      <c r="BY14">
+        <v>1</v>
+      </c>
+      <c r="BZ14" t="str">
+        <v>10013</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>1</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>1</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
+      <c r="BC15">
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BF15">
+        <v>1</v>
+      </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>1</v>
+      </c>
+      <c r="BI15">
+        <v>1</v>
+      </c>
+      <c r="BJ15">
+        <v>1</v>
+      </c>
+      <c r="BK15">
+        <v>1</v>
+      </c>
+      <c r="BL15">
+        <v>1</v>
+      </c>
+      <c r="BM15">
+        <v>1</v>
+      </c>
+      <c r="BN15">
+        <v>1</v>
+      </c>
+      <c r="BO15">
+        <v>1</v>
+      </c>
+      <c r="BP15">
+        <v>1</v>
+      </c>
+      <c r="BQ15">
+        <v>1</v>
+      </c>
+      <c r="BR15">
+        <v>1</v>
+      </c>
+      <c r="BS15">
+        <v>1</v>
+      </c>
+      <c r="BT15">
+        <v>1</v>
+      </c>
+      <c r="BU15">
+        <v>1</v>
+      </c>
+      <c r="BV15">
+        <v>1</v>
+      </c>
+      <c r="BW15">
+        <v>1</v>
+      </c>
+      <c r="BX15">
+        <v>1</v>
+      </c>
+      <c r="BY15">
+        <v>1</v>
+      </c>
+      <c r="BZ15" t="str">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>1</v>
+      </c>
+      <c r="AT16">
+        <v>1</v>
+      </c>
+      <c r="AU16">
+        <v>1</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16">
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <v>1</v>
+      </c>
+      <c r="BD16">
+        <v>1</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+      <c r="BG16">
+        <v>1</v>
+      </c>
+      <c r="BH16">
+        <v>1</v>
+      </c>
+      <c r="BI16">
+        <v>1</v>
+      </c>
+      <c r="BJ16">
+        <v>1</v>
+      </c>
+      <c r="BK16">
+        <v>1</v>
+      </c>
+      <c r="BL16">
+        <v>1</v>
+      </c>
+      <c r="BM16">
+        <v>1</v>
+      </c>
+      <c r="BN16">
+        <v>1</v>
+      </c>
+      <c r="BO16">
+        <v>1</v>
+      </c>
+      <c r="BP16">
+        <v>1</v>
+      </c>
+      <c r="BQ16">
+        <v>1</v>
+      </c>
+      <c r="BR16">
+        <v>1</v>
+      </c>
+      <c r="BS16">
+        <v>1</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>0</v>
+      </c>
+      <c r="BW16">
+        <v>0</v>
+      </c>
+      <c r="BX16">
+        <v>0</v>
+      </c>
+      <c r="BY16">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="str">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>1</v>
+      </c>
+      <c r="AT17">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <v>1</v>
+      </c>
+      <c r="AV17">
+        <v>1</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>1</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>1</v>
+      </c>
+      <c r="BF17">
+        <v>1</v>
+      </c>
+      <c r="BG17">
+        <v>1</v>
+      </c>
+      <c r="BH17">
+        <v>1</v>
+      </c>
+      <c r="BI17">
+        <v>1</v>
+      </c>
+      <c r="BJ17">
+        <v>1</v>
+      </c>
+      <c r="BK17">
+        <v>1</v>
+      </c>
+      <c r="BL17">
+        <v>1</v>
+      </c>
+      <c r="BM17">
+        <v>1</v>
+      </c>
+      <c r="BN17">
+        <v>1</v>
+      </c>
+      <c r="BO17">
+        <v>1</v>
+      </c>
+      <c r="BP17">
+        <v>1</v>
+      </c>
+      <c r="BQ17">
+        <v>1</v>
+      </c>
+      <c r="BR17">
+        <v>1</v>
+      </c>
+      <c r="BS17">
+        <v>1</v>
+      </c>
+      <c r="BT17">
+        <v>1</v>
+      </c>
+      <c r="BU17">
+        <v>1</v>
+      </c>
+      <c r="BV17">
+        <v>1</v>
+      </c>
+      <c r="BW17">
+        <v>1</v>
+      </c>
+      <c r="BX17">
+        <v>1</v>
+      </c>
+      <c r="BY17">
+        <v>1</v>
+      </c>
+      <c r="BZ17" t="str">
+        <v>10003</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>1</v>
+      </c>
+      <c r="AT18">
+        <v>1</v>
+      </c>
+      <c r="AU18">
+        <v>1</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BA18">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BD18">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
+      <c r="BF18">
+        <v>1</v>
+      </c>
+      <c r="BG18">
+        <v>1</v>
+      </c>
+      <c r="BH18">
+        <v>1</v>
+      </c>
+      <c r="BI18">
+        <v>1</v>
+      </c>
+      <c r="BJ18">
+        <v>1</v>
+      </c>
+      <c r="BK18">
+        <v>1</v>
+      </c>
+      <c r="BL18">
+        <v>1</v>
+      </c>
+      <c r="BM18">
+        <v>1</v>
+      </c>
+      <c r="BN18">
+        <v>1</v>
+      </c>
+      <c r="BO18">
+        <v>1</v>
+      </c>
+      <c r="BP18">
+        <v>1</v>
+      </c>
+      <c r="BQ18">
+        <v>1</v>
+      </c>
+      <c r="BR18">
+        <v>1</v>
+      </c>
+      <c r="BS18">
+        <v>1</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
+        <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>0</v>
+      </c>
+      <c r="BZ18" t="str">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>1</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>1</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>1</v>
+      </c>
+      <c r="AT19">
+        <v>1</v>
+      </c>
+      <c r="AU19">
+        <v>1</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="AZ19">
+        <v>1</v>
+      </c>
+      <c r="BA19">
+        <v>1</v>
+      </c>
+      <c r="BB19">
+        <v>1</v>
+      </c>
+      <c r="BC19">
+        <v>1</v>
+      </c>
+      <c r="BD19">
+        <v>1</v>
+      </c>
+      <c r="BE19">
+        <v>1</v>
+      </c>
+      <c r="BF19">
+        <v>1</v>
+      </c>
+      <c r="BG19">
+        <v>1</v>
+      </c>
+      <c r="BH19">
+        <v>1</v>
+      </c>
+      <c r="BI19">
+        <v>1</v>
+      </c>
+      <c r="BJ19">
+        <v>1</v>
+      </c>
+      <c r="BK19">
+        <v>1</v>
+      </c>
+      <c r="BL19">
+        <v>1</v>
+      </c>
+      <c r="BM19">
+        <v>1</v>
+      </c>
+      <c r="BN19">
+        <v>1</v>
+      </c>
+      <c r="BO19">
+        <v>1</v>
+      </c>
+      <c r="BP19">
+        <v>1</v>
+      </c>
+      <c r="BQ19">
+        <v>1</v>
+      </c>
+      <c r="BR19">
+        <v>1</v>
+      </c>
+      <c r="BS19">
+        <v>1</v>
+      </c>
+      <c r="BT19">
+        <v>1</v>
+      </c>
+      <c r="BU19">
+        <v>1</v>
+      </c>
+      <c r="BV19">
+        <v>1</v>
+      </c>
+      <c r="BW19">
+        <v>1</v>
+      </c>
+      <c r="BX19">
+        <v>1</v>
+      </c>
+      <c r="BY19">
+        <v>1</v>
+      </c>
+      <c r="BZ19" t="str">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>1</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>1</v>
+      </c>
+      <c r="AT20">
+        <v>1</v>
+      </c>
+      <c r="AU20">
+        <v>1</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
+      </c>
+      <c r="AW20">
+        <v>1</v>
+      </c>
+      <c r="AX20">
+        <v>1</v>
+      </c>
+      <c r="AY20">
+        <v>1</v>
+      </c>
+      <c r="AZ20">
+        <v>1</v>
+      </c>
+      <c r="BA20">
+        <v>1</v>
+      </c>
+      <c r="BB20">
+        <v>1</v>
+      </c>
+      <c r="BC20">
+        <v>1</v>
+      </c>
+      <c r="BD20">
+        <v>1</v>
+      </c>
+      <c r="BE20">
+        <v>1</v>
+      </c>
+      <c r="BF20">
+        <v>1</v>
+      </c>
+      <c r="BG20">
+        <v>1</v>
+      </c>
+      <c r="BH20">
+        <v>1</v>
+      </c>
+      <c r="BI20">
+        <v>1</v>
+      </c>
+      <c r="BJ20">
+        <v>1</v>
+      </c>
+      <c r="BK20">
+        <v>1</v>
+      </c>
+      <c r="BL20">
+        <v>1</v>
+      </c>
+      <c r="BM20">
+        <v>1</v>
+      </c>
+      <c r="BN20">
+        <v>1</v>
+      </c>
+      <c r="BO20">
+        <v>1</v>
+      </c>
+      <c r="BP20">
+        <v>1</v>
+      </c>
+      <c r="BQ20">
+        <v>1</v>
+      </c>
+      <c r="BR20">
+        <v>1</v>
+      </c>
+      <c r="BS20">
+        <v>1</v>
+      </c>
+      <c r="BT20">
+        <v>1</v>
+      </c>
+      <c r="BU20">
+        <v>1</v>
+      </c>
+      <c r="BV20">
+        <v>1</v>
+      </c>
+      <c r="BW20">
+        <v>1</v>
+      </c>
+      <c r="BX20">
+        <v>1</v>
+      </c>
+      <c r="BY20">
+        <v>1</v>
+      </c>
+      <c r="BZ20" t="str">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>1</v>
+      </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>1</v>
+      </c>
+      <c r="AY21">
+        <v>1</v>
+      </c>
+      <c r="AZ21">
+        <v>1</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>1</v>
+      </c>
+      <c r="BC21">
+        <v>1</v>
+      </c>
+      <c r="BD21">
+        <v>1</v>
+      </c>
+      <c r="BE21">
+        <v>1</v>
+      </c>
+      <c r="BF21">
+        <v>1</v>
+      </c>
+      <c r="BG21">
+        <v>1</v>
+      </c>
+      <c r="BH21">
+        <v>1</v>
+      </c>
+      <c r="BI21">
+        <v>1</v>
+      </c>
+      <c r="BJ21">
+        <v>1</v>
+      </c>
+      <c r="BK21">
+        <v>1</v>
+      </c>
+      <c r="BL21">
+        <v>1</v>
+      </c>
+      <c r="BM21">
+        <v>1</v>
+      </c>
+      <c r="BN21">
+        <v>1</v>
+      </c>
+      <c r="BO21">
+        <v>1</v>
+      </c>
+      <c r="BP21">
+        <v>1</v>
+      </c>
+      <c r="BQ21">
+        <v>1</v>
+      </c>
+      <c r="BR21">
+        <v>1</v>
+      </c>
+      <c r="BS21">
+        <v>1</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BU21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>0</v>
+      </c>
+      <c r="BW21">
+        <v>0</v>
+      </c>
+      <c r="BX21">
+        <v>0</v>
+      </c>
+      <c r="BY21">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="str">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>1</v>
+      </c>
+      <c r="AT22">
+        <v>1</v>
+      </c>
+      <c r="AU22">
+        <v>1</v>
+      </c>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
+      </c>
+      <c r="AZ22">
+        <v>1</v>
+      </c>
+      <c r="BA22">
+        <v>1</v>
+      </c>
+      <c r="BB22">
+        <v>1</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22">
+        <v>1</v>
+      </c>
+      <c r="BF22">
+        <v>1</v>
+      </c>
+      <c r="BG22">
+        <v>1</v>
+      </c>
+      <c r="BH22">
+        <v>1</v>
+      </c>
+      <c r="BI22">
+        <v>1</v>
+      </c>
+      <c r="BJ22">
+        <v>1</v>
+      </c>
+      <c r="BK22">
+        <v>1</v>
+      </c>
+      <c r="BL22">
+        <v>1</v>
+      </c>
+      <c r="BM22">
+        <v>1</v>
+      </c>
+      <c r="BN22">
+        <v>1</v>
+      </c>
+      <c r="BO22">
+        <v>1</v>
+      </c>
+      <c r="BP22">
+        <v>1</v>
+      </c>
+      <c r="BQ22">
+        <v>1</v>
+      </c>
+      <c r="BR22">
+        <v>1</v>
+      </c>
+      <c r="BS22">
+        <v>1</v>
+      </c>
+      <c r="BT22">
+        <v>1</v>
+      </c>
+      <c r="BU22">
+        <v>1</v>
+      </c>
+      <c r="BV22">
+        <v>1</v>
+      </c>
+      <c r="BW22">
+        <v>1</v>
+      </c>
+      <c r="BX22">
+        <v>1</v>
+      </c>
+      <c r="BY22">
+        <v>1</v>
+      </c>
+      <c r="BZ22" t="str">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>1</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>1</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
+        <v>1</v>
+      </c>
+      <c r="AU23">
+        <v>1</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>1</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23">
+        <v>1</v>
+      </c>
+      <c r="BB23">
+        <v>1</v>
+      </c>
+      <c r="BC23">
+        <v>1</v>
+      </c>
+      <c r="BD23">
+        <v>1</v>
+      </c>
+      <c r="BE23">
+        <v>1</v>
+      </c>
+      <c r="BF23">
+        <v>1</v>
+      </c>
+      <c r="BG23">
+        <v>1</v>
+      </c>
+      <c r="BH23">
+        <v>1</v>
+      </c>
+      <c r="BI23">
+        <v>1</v>
+      </c>
+      <c r="BJ23">
+        <v>1</v>
+      </c>
+      <c r="BK23">
+        <v>1</v>
+      </c>
+      <c r="BL23">
+        <v>1</v>
+      </c>
+      <c r="BM23">
+        <v>1</v>
+      </c>
+      <c r="BN23">
+        <v>1</v>
+      </c>
+      <c r="BO23">
+        <v>1</v>
+      </c>
+      <c r="BP23">
+        <v>1</v>
+      </c>
+      <c r="BQ23">
+        <v>1</v>
+      </c>
+      <c r="BR23">
+        <v>1</v>
+      </c>
+      <c r="BS23">
+        <v>1</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BU23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>0</v>
+      </c>
+      <c r="BW23">
+        <v>0</v>
+      </c>
+      <c r="BX23">
+        <v>0</v>
+      </c>
+      <c r="BY23">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="str">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>1</v>
+      </c>
+      <c r="AT24">
+        <v>1</v>
+      </c>
+      <c r="AU24">
+        <v>1</v>
+      </c>
+      <c r="AV24">
+        <v>1</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>1</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24">
+        <v>1</v>
+      </c>
+      <c r="BA24">
+        <v>1</v>
+      </c>
+      <c r="BB24">
+        <v>1</v>
+      </c>
+      <c r="BC24">
+        <v>1</v>
+      </c>
+      <c r="BD24">
+        <v>1</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
+      </c>
+      <c r="BF24">
+        <v>1</v>
+      </c>
+      <c r="BG24">
+        <v>1</v>
+      </c>
+      <c r="BH24">
+        <v>1</v>
+      </c>
+      <c r="BI24">
+        <v>1</v>
+      </c>
+      <c r="BJ24">
+        <v>1</v>
+      </c>
+      <c r="BK24">
+        <v>1</v>
+      </c>
+      <c r="BL24">
+        <v>1</v>
+      </c>
+      <c r="BM24">
+        <v>1</v>
+      </c>
+      <c r="BN24">
+        <v>1</v>
+      </c>
+      <c r="BO24">
+        <v>1</v>
+      </c>
+      <c r="BP24">
+        <v>1</v>
+      </c>
+      <c r="BQ24">
+        <v>1</v>
+      </c>
+      <c r="BR24">
+        <v>1</v>
+      </c>
+      <c r="BS24">
+        <v>1</v>
+      </c>
+      <c r="BT24">
+        <v>1</v>
+      </c>
+      <c r="BU24">
+        <v>1</v>
+      </c>
+      <c r="BV24">
+        <v>1</v>
+      </c>
+      <c r="BW24">
+        <v>1</v>
+      </c>
+      <c r="BX24">
+        <v>1</v>
+      </c>
+      <c r="BY24">
+        <v>1</v>
+      </c>
+      <c r="BZ24" t="str">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>1</v>
+      </c>
+      <c r="AU25">
+        <v>1</v>
+      </c>
+      <c r="AV25">
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25">
+        <v>1</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>1</v>
+      </c>
+      <c r="BC25">
+        <v>1</v>
+      </c>
+      <c r="BD25">
+        <v>1</v>
+      </c>
+      <c r="BE25">
+        <v>1</v>
+      </c>
+      <c r="BF25">
+        <v>1</v>
+      </c>
+      <c r="BG25">
+        <v>1</v>
+      </c>
+      <c r="BH25">
+        <v>1</v>
+      </c>
+      <c r="BI25">
+        <v>1</v>
+      </c>
+      <c r="BJ25">
+        <v>1</v>
+      </c>
+      <c r="BK25">
+        <v>1</v>
+      </c>
+      <c r="BL25">
+        <v>1</v>
+      </c>
+      <c r="BM25">
+        <v>1</v>
+      </c>
+      <c r="BN25">
+        <v>1</v>
+      </c>
+      <c r="BO25">
+        <v>1</v>
+      </c>
+      <c r="BP25">
+        <v>1</v>
+      </c>
+      <c r="BQ25">
+        <v>1</v>
+      </c>
+      <c r="BR25">
+        <v>1</v>
+      </c>
+      <c r="BS25">
+        <v>1</v>
+      </c>
+      <c r="BT25">
+        <v>1</v>
+      </c>
+      <c r="BU25">
+        <v>1</v>
+      </c>
+      <c r="BV25">
+        <v>1</v>
+      </c>
+      <c r="BW25">
+        <v>1</v>
+      </c>
+      <c r="BX25">
+        <v>1</v>
+      </c>
+      <c r="BY25">
+        <v>1</v>
+      </c>
+      <c r="BZ25" t="str">
+        <v>10011</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>1</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26">
+        <v>1</v>
+      </c>
+      <c r="BA26">
+        <v>1</v>
+      </c>
+      <c r="BB26">
+        <v>1</v>
+      </c>
+      <c r="BC26">
+        <v>1</v>
+      </c>
+      <c r="BD26">
+        <v>1</v>
+      </c>
+      <c r="BE26">
+        <v>1</v>
+      </c>
+      <c r="BF26">
+        <v>1</v>
+      </c>
+      <c r="BG26">
+        <v>1</v>
+      </c>
+      <c r="BH26">
+        <v>1</v>
+      </c>
+      <c r="BI26">
+        <v>1</v>
+      </c>
+      <c r="BJ26">
+        <v>1</v>
+      </c>
+      <c r="BK26">
+        <v>1</v>
+      </c>
+      <c r="BL26">
+        <v>1</v>
+      </c>
+      <c r="BM26">
+        <v>1</v>
+      </c>
+      <c r="BN26">
+        <v>1</v>
+      </c>
+      <c r="BO26">
+        <v>1</v>
+      </c>
+      <c r="BP26">
+        <v>1</v>
+      </c>
+      <c r="BQ26">
+        <v>1</v>
+      </c>
+      <c r="BR26">
+        <v>1</v>
+      </c>
+      <c r="BS26">
+        <v>1</v>
+      </c>
+      <c r="BT26">
+        <v>1</v>
+      </c>
+      <c r="BU26">
+        <v>1</v>
+      </c>
+      <c r="BV26">
+        <v>1</v>
+      </c>
+      <c r="BW26">
+        <v>1</v>
+      </c>
+      <c r="BX26">
+        <v>1</v>
+      </c>
+      <c r="BY26">
+        <v>1</v>
+      </c>
+      <c r="BZ26" t="str">
+        <v>10012</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>1</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>1</v>
+      </c>
+      <c r="AS27">
+        <v>1</v>
+      </c>
+      <c r="AT27">
+        <v>1</v>
+      </c>
+      <c r="AU27">
+        <v>1</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27">
+        <v>1</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27">
+        <v>1</v>
+      </c>
+      <c r="BA27">
+        <v>1</v>
+      </c>
+      <c r="BB27">
+        <v>1</v>
+      </c>
+      <c r="BC27">
+        <v>1</v>
+      </c>
+      <c r="BD27">
+        <v>1</v>
+      </c>
+      <c r="BE27">
+        <v>1</v>
+      </c>
+      <c r="BF27">
+        <v>1</v>
+      </c>
+      <c r="BG27">
+        <v>1</v>
+      </c>
+      <c r="BH27">
+        <v>1</v>
+      </c>
+      <c r="BI27">
+        <v>1</v>
+      </c>
+      <c r="BJ27">
+        <v>1</v>
+      </c>
+      <c r="BK27">
+        <v>1</v>
+      </c>
+      <c r="BL27">
+        <v>1</v>
+      </c>
+      <c r="BM27">
+        <v>1</v>
+      </c>
+      <c r="BN27">
+        <v>1</v>
+      </c>
+      <c r="BO27">
+        <v>1</v>
+      </c>
+      <c r="BP27">
+        <v>1</v>
+      </c>
+      <c r="BQ27">
+        <v>1</v>
+      </c>
+      <c r="BR27">
+        <v>1</v>
+      </c>
+      <c r="BS27">
+        <v>1</v>
+      </c>
+      <c r="BT27">
+        <v>1</v>
+      </c>
+      <c r="BU27">
+        <v>1</v>
+      </c>
+      <c r="BV27">
+        <v>1</v>
+      </c>
+      <c r="BW27">
+        <v>1</v>
+      </c>
+      <c r="BX27">
+        <v>1</v>
+      </c>
+      <c r="BY27">
+        <v>1</v>
+      </c>
+      <c r="BZ27" t="str">
+        <v>10013</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:BZ27"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/output/input_data.xlsx
+++ b/output/input_data.xlsx
@@ -909,7 +909,7 @@
         <v>24.06.2022</v>
       </c>
       <c r="J2" t="str">
-        <v>11.07.2022</v>
+        <v>16.07.2022</v>
       </c>
       <c r="K2">
         <v>0.5</v>
